--- a/tox5_preprocessing/test/test_data/annotation.xlsx
+++ b/tox5_preprocessing/test/test_data/annotation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18090" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Annotation" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+  <si>
+    <t>Nanofil9 (Nanoclay)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
   <si>
     <t>water</t>
   </si>
@@ -56,6 +83,42 @@
     <t>B2</t>
   </si>
   <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
     <t>Concentration (yg/ml)</t>
   </si>
   <si>
@@ -66,18 +129,15 @@
   </si>
   <si>
     <t>Dispersant</t>
-  </si>
-  <si>
-    <t>NM1</t>
-  </si>
-  <si>
-    <t>NM2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.00000000000000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,16 +177,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -137,15 +233,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -465,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,90 +591,409 @@
     <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.11705532693187</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.35116598079561001</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.05349794238683</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>20</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.1604938271604901</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="9">
+        <v>20</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9.4814814814814792</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9">
+        <v>20</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>28.4444444444444</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>20</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>85.3333333333333</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="9">
+        <v>20</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>256</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="9">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="9">
+        <v>20</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:G385">
